--- a/biology/Botanique/Parthenium/Parthenium.xlsx
+++ b/biology/Botanique/Parthenium/Parthenium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parthenium est un genre de plantes à fleurs dicotylédones de la famille des Asteraceae.
 Ce genre comprend une quinzaine d'espèces, plantes herbacées ou arbrisseaux, originaires des régions tropicales et subtropicales d'Amérique. Plusieurs espèces ont été introduites dans l'ancien Monde et en Océanie.
-Le nom générique Parthenium dérive d'un terme grec, soit παρθένος (parthenos), qui signifie « vierge », soit de παρθένιον (parthenion), nom ancien d'une plante[2]. Parthenium désignait en latin diverses plantes (matricaires, mercuriales et surtout pariétaires)[3].
+Le nom générique Parthenium dérive d'un terme grec, soit παρθένος (parthenos), qui signifie « vierge », soit de παρθένιον (parthenion), nom ancien d'une plante. Parthenium désignait en latin diverses plantes (matricaires, mercuriales et surtout pariétaires).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (18 février 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (18 février 2016) (Attention liste brute contenant possiblement des synonymes) :
 Parthenium alpinum (Nutt.) Torr. &amp; A. Gray
 Parthenium arctium Bartlett
 Parthenium argentatum A. Gray
